--- a/TCC EXCEL FILES/TCC 2011.xlsx
+++ b/TCC EXCEL FILES/TCC 2011.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB94A79-19CA-4BE7-91DC-FA9E9827E63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD48279-A335-4159-A6FE-99E49A8FBF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5415" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5416" uniqueCount="1450">
   <si>
     <t>Judges Names</t>
   </si>
@@ -4367,6 +4367,9 @@
   </si>
   <si>
     <t>AO</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -4746,15 +4749,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M452"/>
+  <dimension ref="A1:N452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A327" workbookViewId="0">
-      <selection activeCell="T336" sqref="T336"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4792,10 +4795,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -4832,11 +4838,14 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4873,11 +4882,14 @@
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -4914,11 +4926,14 @@
       <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -4955,11 +4970,14 @@
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -4996,11 +5014,14 @@
       <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -5037,11 +5058,14 @@
       <c r="L7" t="s">
         <v>59</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -5078,11 +5102,14 @@
       <c r="L8" t="s">
         <v>59</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -5119,11 +5146,14 @@
       <c r="L9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -5160,11 +5190,14 @@
       <c r="L10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>76</v>
       </c>
@@ -5201,11 +5234,14 @@
       <c r="L11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -5242,11 +5278,14 @@
       <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -5283,11 +5322,14 @@
       <c r="L13" t="s">
         <v>22</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>88</v>
       </c>
@@ -5324,11 +5366,14 @@
       <c r="L14" t="s">
         <v>22</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>88</v>
       </c>
@@ -5365,11 +5410,14 @@
       <c r="L15" t="s">
         <v>22</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -5406,11 +5454,14 @@
       <c r="L16" t="s">
         <v>22</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -5447,11 +5498,14 @@
       <c r="L17" t="s">
         <v>22</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -5488,11 +5542,14 @@
       <c r="L18" t="s">
         <v>22</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>113</v>
       </c>
@@ -5529,11 +5586,14 @@
       <c r="L19" t="s">
         <v>59</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>117</v>
       </c>
@@ -5570,11 +5630,14 @@
       <c r="L20" t="s">
         <v>59</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -5611,11 +5674,14 @@
       <c r="L21" t="s">
         <v>22</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -5652,11 +5718,14 @@
       <c r="L22" t="s">
         <v>59</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -5693,11 +5762,14 @@
       <c r="L23" t="s">
         <v>59</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>88</v>
       </c>
@@ -5734,11 +5806,14 @@
       <c r="L24" t="s">
         <v>22</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -5775,11 +5850,14 @@
       <c r="L25" t="s">
         <v>22</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>117</v>
       </c>
@@ -5816,11 +5894,14 @@
       <c r="L26" t="s">
         <v>59</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -5857,11 +5938,14 @@
       <c r="L27" t="s">
         <v>59</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -5898,11 +5982,14 @@
       <c r="L28" t="s">
         <v>22</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>126</v>
       </c>
@@ -5939,11 +6026,14 @@
       <c r="L29" t="s">
         <v>59</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -5980,11 +6070,14 @@
       <c r="L30" t="s">
         <v>59</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>162</v>
       </c>
@@ -6021,11 +6114,14 @@
       <c r="L31" t="s">
         <v>59</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>167</v>
       </c>
@@ -6062,11 +6158,14 @@
       <c r="L32" t="s">
         <v>22</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -6103,11 +6202,14 @@
       <c r="L33" t="s">
         <v>22</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>138</v>
       </c>
@@ -6144,11 +6246,14 @@
       <c r="L34" t="s">
         <v>22</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -6185,11 +6290,14 @@
       <c r="L35" t="s">
         <v>22</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -6226,11 +6334,14 @@
       <c r="L36" t="s">
         <v>22</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>191</v>
       </c>
@@ -6267,11 +6378,14 @@
       <c r="L37" t="s">
         <v>59</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -6308,11 +6422,14 @@
       <c r="L38" t="s">
         <v>59</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -6349,11 +6466,14 @@
       <c r="L39" t="s">
         <v>22</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -6390,11 +6510,14 @@
       <c r="L40" t="s">
         <v>22</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>126</v>
       </c>
@@ -6431,11 +6554,14 @@
       <c r="L41" t="s">
         <v>59</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>126</v>
       </c>
@@ -6472,11 +6598,14 @@
       <c r="L42" t="s">
         <v>59</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>214</v>
       </c>
@@ -6513,11 +6642,14 @@
       <c r="L43" t="s">
         <v>22</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -6554,11 +6686,14 @@
       <c r="L44" t="s">
         <v>22</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>191</v>
       </c>
@@ -6595,11 +6730,14 @@
       <c r="L45" t="s">
         <v>59</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -6636,11 +6774,14 @@
       <c r="L46" t="s">
         <v>22</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -6677,11 +6818,14 @@
       <c r="L47" t="s">
         <v>22</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>117</v>
       </c>
@@ -6718,11 +6862,14 @@
       <c r="L48" t="s">
         <v>59</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>214</v>
       </c>
@@ -6759,11 +6906,14 @@
       <c r="L49" t="s">
         <v>22</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>240</v>
       </c>
@@ -6800,11 +6950,14 @@
       <c r="L50" t="s">
         <v>22</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>214</v>
       </c>
@@ -6841,11 +6994,14 @@
       <c r="L51" t="s">
         <v>22</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>250</v>
       </c>
@@ -6882,11 +7038,14 @@
       <c r="L52" t="s">
         <v>22</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -6923,11 +7082,14 @@
       <c r="L53" t="s">
         <v>22</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -6964,11 +7126,14 @@
       <c r="L54" t="s">
         <v>59</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>214</v>
       </c>
@@ -7005,11 +7170,14 @@
       <c r="L55" t="s">
         <v>22</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>214</v>
       </c>
@@ -7046,11 +7214,14 @@
       <c r="L56" t="s">
         <v>22</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -7087,11 +7258,14 @@
       <c r="L57" t="s">
         <v>22</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>214</v>
       </c>
@@ -7128,11 +7302,14 @@
       <c r="L58" t="s">
         <v>22</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -7169,11 +7346,14 @@
       <c r="L59" t="s">
         <v>22</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>214</v>
       </c>
@@ -7210,11 +7390,14 @@
       <c r="L60" t="s">
         <v>22</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -7251,11 +7434,14 @@
       <c r="L61" t="s">
         <v>59</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>45</v>
       </c>
@@ -7292,11 +7478,14 @@
       <c r="L62" t="s">
         <v>22</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -7333,11 +7522,14 @@
       <c r="L63" t="s">
         <v>59</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -7374,11 +7566,14 @@
       <c r="L64" t="s">
         <v>22</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -7415,11 +7610,14 @@
       <c r="L65" t="s">
         <v>59</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>191</v>
       </c>
@@ -7456,11 +7654,14 @@
       <c r="L66" t="s">
         <v>59</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>299</v>
       </c>
@@ -7497,11 +7698,14 @@
       <c r="L67" t="s">
         <v>59</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>184</v>
       </c>
@@ -7538,11 +7742,14 @@
       <c r="L68" t="s">
         <v>22</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>191</v>
       </c>
@@ -7579,11 +7786,14 @@
       <c r="L69" t="s">
         <v>59</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -7620,11 +7830,14 @@
       <c r="L70" t="s">
         <v>22</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>315</v>
       </c>
@@ -7661,11 +7874,14 @@
       <c r="L71" t="s">
         <v>59</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -7702,11 +7918,14 @@
       <c r="L72" t="s">
         <v>59</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -7743,11 +7962,14 @@
       <c r="L73" t="s">
         <v>59</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>146</v>
       </c>
@@ -7784,11 +8006,14 @@
       <c r="L74" t="s">
         <v>59</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -7825,11 +8050,14 @@
       <c r="L75" t="s">
         <v>59</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -7866,11 +8094,14 @@
       <c r="L76" t="s">
         <v>59</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>138</v>
       </c>
@@ -7907,11 +8138,14 @@
       <c r="L77" t="s">
         <v>22</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>191</v>
       </c>
@@ -7948,11 +8182,14 @@
       <c r="L78" t="s">
         <v>59</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -7989,11 +8226,14 @@
       <c r="L79" t="s">
         <v>22</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -8030,11 +8270,14 @@
       <c r="L80" t="s">
         <v>22</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -8071,11 +8314,14 @@
       <c r="L81" t="s">
         <v>22</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>349</v>
       </c>
@@ -8112,11 +8358,14 @@
       <c r="L82" t="s">
         <v>22</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>354</v>
       </c>
@@ -8153,11 +8402,14 @@
       <c r="L83" t="s">
         <v>22</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -8194,11 +8446,14 @@
       <c r="L84" t="s">
         <v>59</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>117</v>
       </c>
@@ -8235,11 +8490,14 @@
       <c r="L85" t="s">
         <v>59</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>364</v>
       </c>
@@ -8273,11 +8531,14 @@
       <c r="L86" t="s">
         <v>22</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -8314,11 +8575,14 @@
       <c r="L87" t="s">
         <v>22</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>374</v>
       </c>
@@ -8355,11 +8619,14 @@
       <c r="L88" t="s">
         <v>22</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>378</v>
       </c>
@@ -8396,11 +8663,14 @@
       <c r="L89" t="s">
         <v>22</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>383</v>
       </c>
@@ -8437,11 +8707,14 @@
       <c r="L90" t="s">
         <v>22</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>191</v>
       </c>
@@ -8478,11 +8751,14 @@
       <c r="L91" t="s">
         <v>59</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>126</v>
       </c>
@@ -8519,11 +8795,14 @@
       <c r="L92" t="s">
         <v>59</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>315</v>
       </c>
@@ -8536,11 +8815,14 @@
       <c r="H93">
         <v>0</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>397</v>
       </c>
@@ -8577,11 +8859,14 @@
       <c r="L94" t="s">
         <v>22</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>1</v>
+      </c>
+      <c r="N94" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>364</v>
       </c>
@@ -8618,11 +8903,14 @@
       <c r="L95" t="s">
         <v>22</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>117</v>
       </c>
@@ -8659,11 +8947,14 @@
       <c r="L96" t="s">
         <v>22</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>117</v>
       </c>
@@ -8700,11 +8991,14 @@
       <c r="L97" t="s">
         <v>59</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>397</v>
       </c>
@@ -8741,11 +9035,14 @@
       <c r="L98" t="s">
         <v>22</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>126</v>
       </c>
@@ -8782,11 +9079,14 @@
       <c r="L99" t="s">
         <v>59</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>420</v>
       </c>
@@ -8823,11 +9123,14 @@
       <c r="L100" t="s">
         <v>59</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>397</v>
       </c>
@@ -8864,11 +9167,14 @@
       <c r="L101" t="s">
         <v>22</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>397</v>
       </c>
@@ -8905,11 +9211,14 @@
       <c r="L102" t="s">
         <v>22</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>214</v>
       </c>
@@ -8946,11 +9255,14 @@
       <c r="L103" t="s">
         <v>22</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>397</v>
       </c>
@@ -8987,11 +9299,14 @@
       <c r="L104" t="s">
         <v>22</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>126</v>
       </c>
@@ -9028,11 +9343,14 @@
       <c r="L105" t="s">
         <v>59</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>126</v>
       </c>
@@ -9069,11 +9387,14 @@
       <c r="L106" t="s">
         <v>59</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>367</v>
       </c>
@@ -9110,11 +9431,14 @@
       <c r="L107" t="s">
         <v>22</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>191</v>
       </c>
@@ -9151,11 +9475,14 @@
       <c r="L108" t="s">
         <v>59</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -9192,11 +9519,14 @@
       <c r="L109" t="s">
         <v>22</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>117</v>
       </c>
@@ -9233,11 +9563,14 @@
       <c r="L110" t="s">
         <v>59</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>383</v>
       </c>
@@ -9274,11 +9607,14 @@
       <c r="L111" t="s">
         <v>22</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>214</v>
       </c>
@@ -9315,11 +9651,14 @@
       <c r="L112" t="s">
         <v>22</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>184</v>
       </c>
@@ -9356,11 +9695,14 @@
       <c r="L113" t="s">
         <v>22</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -9397,11 +9739,14 @@
       <c r="L114" t="s">
         <v>59</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>467</v>
       </c>
@@ -9438,11 +9783,14 @@
       <c r="L115" t="s">
         <v>22</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -9479,11 +9827,14 @@
       <c r="L116" t="s">
         <v>22</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>191</v>
       </c>
@@ -9520,11 +9871,14 @@
       <c r="L117" t="s">
         <v>59</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>364</v>
       </c>
@@ -9561,11 +9915,14 @@
       <c r="L118" t="s">
         <v>22</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>483</v>
       </c>
@@ -9602,11 +9959,14 @@
       <c r="L119" t="s">
         <v>22</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -9643,11 +10003,14 @@
       <c r="L120" t="s">
         <v>22</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>250</v>
       </c>
@@ -9684,11 +10047,14 @@
       <c r="L121" t="s">
         <v>22</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -9725,11 +10091,14 @@
       <c r="L122" t="s">
         <v>22</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>88</v>
       </c>
@@ -9766,11 +10135,14 @@
       <c r="L123" t="s">
         <v>22</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -9807,11 +10179,14 @@
       <c r="L124" t="s">
         <v>59</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>38</v>
       </c>
@@ -9848,11 +10223,14 @@
       <c r="L125" t="s">
         <v>22</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>113</v>
       </c>
@@ -9889,11 +10267,14 @@
       <c r="L126" t="s">
         <v>59</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>184</v>
       </c>
@@ -9930,11 +10311,14 @@
       <c r="L127" t="s">
         <v>22</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>117</v>
       </c>
@@ -9971,11 +10355,14 @@
       <c r="L128" t="s">
         <v>59</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>378</v>
       </c>
@@ -10012,11 +10399,14 @@
       <c r="L129" t="s">
         <v>22</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>250</v>
       </c>
@@ -10053,11 +10443,14 @@
       <c r="L130" t="s">
         <v>22</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>184</v>
       </c>
@@ -10094,11 +10487,14 @@
       <c r="L131" t="s">
         <v>22</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -10135,11 +10531,14 @@
       <c r="L132" t="s">
         <v>59</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>528</v>
       </c>
@@ -10176,11 +10575,14 @@
       <c r="L133" t="s">
         <v>22</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>191</v>
       </c>
@@ -10217,11 +10619,14 @@
       <c r="L134" t="s">
         <v>59</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>38</v>
       </c>
@@ -10258,11 +10663,14 @@
       <c r="L135" t="s">
         <v>22</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>250</v>
       </c>
@@ -10299,11 +10707,14 @@
       <c r="L136" t="s">
         <v>22</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>354</v>
       </c>
@@ -10340,11 +10751,14 @@
       <c r="L137" t="s">
         <v>22</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>76</v>
       </c>
@@ -10381,11 +10795,14 @@
       <c r="L138" t="s">
         <v>22</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>467</v>
       </c>
@@ -10422,11 +10839,14 @@
       <c r="L139" t="s">
         <v>22</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>113</v>
       </c>
@@ -10463,11 +10883,14 @@
       <c r="L140" t="s">
         <v>59</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>250</v>
       </c>
@@ -10504,11 +10927,14 @@
       <c r="L141" t="s">
         <v>22</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>191</v>
       </c>
@@ -10545,11 +10971,14 @@
       <c r="L142" t="s">
         <v>59</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>191</v>
       </c>
@@ -10586,11 +11015,14 @@
       <c r="L143" t="s">
         <v>59</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>24</v>
       </c>
@@ -10627,11 +11059,14 @@
       <c r="L144" t="s">
         <v>22</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>45</v>
       </c>
@@ -10668,11 +11103,14 @@
       <c r="L145" t="s">
         <v>22</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>38</v>
       </c>
@@ -10709,11 +11147,14 @@
       <c r="L146" t="s">
         <v>22</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>131</v>
       </c>
@@ -10750,11 +11191,14 @@
       <c r="L147" t="s">
         <v>59</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>117</v>
       </c>
@@ -10791,11 +11235,14 @@
       <c r="L148" t="s">
         <v>59</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>191</v>
       </c>
@@ -10832,11 +11279,14 @@
       <c r="L149" t="s">
         <v>59</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>214</v>
       </c>
@@ -10873,11 +11323,14 @@
       <c r="L150" t="s">
         <v>22</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>585</v>
       </c>
@@ -10914,11 +11367,14 @@
       <c r="L151" t="s">
         <v>59</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>76</v>
       </c>
@@ -10955,11 +11411,14 @@
       <c r="L152" t="s">
         <v>22</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>45</v>
       </c>
@@ -10996,11 +11455,14 @@
       <c r="L153" t="s">
         <v>22</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>214</v>
       </c>
@@ -11037,11 +11499,14 @@
       <c r="L154" t="s">
         <v>22</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>45</v>
       </c>
@@ -11078,11 +11543,14 @@
       <c r="L155" t="s">
         <v>22</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>214</v>
       </c>
@@ -11119,11 +11587,14 @@
       <c r="L156" t="s">
         <v>22</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>88</v>
       </c>
@@ -11160,11 +11631,14 @@
       <c r="L157" t="s">
         <v>22</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>117</v>
       </c>
@@ -11201,11 +11675,14 @@
       <c r="L158" t="s">
         <v>59</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>24</v>
       </c>
@@ -11242,11 +11719,14 @@
       <c r="L159" t="s">
         <v>22</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>24</v>
       </c>
@@ -11283,11 +11763,14 @@
       <c r="L160" t="s">
         <v>22</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>191</v>
       </c>
@@ -11324,11 +11807,14 @@
       <c r="L161" t="s">
         <v>59</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>100</v>
       </c>
@@ -11365,11 +11851,14 @@
       <c r="L162" t="s">
         <v>22</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>117</v>
       </c>
@@ -11406,11 +11895,14 @@
       <c r="L163" t="s">
         <v>22</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>214</v>
       </c>
@@ -11447,11 +11939,14 @@
       <c r="L164" t="s">
         <v>22</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>117</v>
       </c>
@@ -11488,11 +11983,14 @@
       <c r="L165" t="s">
         <v>22</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>364</v>
       </c>
@@ -11529,11 +12027,14 @@
       <c r="L166" t="s">
         <v>22</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>146</v>
       </c>
@@ -11570,11 +12071,14 @@
       <c r="L167" t="s">
         <v>59</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>146</v>
       </c>
@@ -11611,11 +12115,14 @@
       <c r="L168" t="s">
         <v>59</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>214</v>
       </c>
@@ -11652,11 +12159,14 @@
       <c r="L169" t="s">
         <v>22</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>131</v>
       </c>
@@ -11693,11 +12203,14 @@
       <c r="L170" t="s">
         <v>59</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>250</v>
       </c>
@@ -11734,11 +12247,14 @@
       <c r="L171" t="s">
         <v>22</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>138</v>
       </c>
@@ -11775,11 +12291,14 @@
       <c r="L172" t="s">
         <v>22</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>52</v>
       </c>
@@ -11816,11 +12335,14 @@
       <c r="L173" t="s">
         <v>59</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>645</v>
       </c>
@@ -11857,11 +12379,14 @@
       <c r="L174" t="s">
         <v>59</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>467</v>
       </c>
@@ -11898,11 +12423,14 @@
       <c r="L175" t="s">
         <v>22</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>653</v>
       </c>
@@ -11939,11 +12467,14 @@
       <c r="L176" t="s">
         <v>22</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>138</v>
       </c>
@@ -11980,11 +12511,14 @@
       <c r="L177" t="s">
         <v>22</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>467</v>
       </c>
@@ -12021,11 +12555,14 @@
       <c r="L178" t="s">
         <v>22</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>378</v>
       </c>
@@ -12062,11 +12599,14 @@
       <c r="L179" t="s">
         <v>22</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>45</v>
       </c>
@@ -12103,11 +12643,14 @@
       <c r="L180" t="s">
         <v>22</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>214</v>
       </c>
@@ -12144,11 +12687,14 @@
       <c r="L181" t="s">
         <v>22</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>378</v>
       </c>
@@ -12185,11 +12731,14 @@
       <c r="L182" t="s">
         <v>22</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>126</v>
       </c>
@@ -12226,11 +12775,14 @@
       <c r="L183" t="s">
         <v>59</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>126</v>
       </c>
@@ -12267,11 +12819,14 @@
       <c r="L184" t="s">
         <v>59</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>682</v>
       </c>
@@ -12308,11 +12863,14 @@
       <c r="L185" t="s">
         <v>22</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>126</v>
       </c>
@@ -12349,11 +12907,14 @@
       <c r="L186" t="s">
         <v>59</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>191</v>
       </c>
@@ -12390,11 +12951,14 @@
       <c r="L187" t="s">
         <v>59</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>146</v>
       </c>
@@ -12431,11 +12995,14 @@
       <c r="L188" t="s">
         <v>59</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>131</v>
       </c>
@@ -12472,11 +13039,14 @@
       <c r="L189" t="s">
         <v>59</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189">
+        <v>1</v>
+      </c>
+      <c r="N189" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>117</v>
       </c>
@@ -12513,11 +13083,14 @@
       <c r="L190" t="s">
         <v>59</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190">
+        <v>1</v>
+      </c>
+      <c r="N190" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>71</v>
       </c>
@@ -12554,11 +13127,14 @@
       <c r="L191" t="s">
         <v>22</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>38</v>
       </c>
@@ -12595,11 +13171,14 @@
       <c r="L192" t="s">
         <v>22</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>682</v>
       </c>
@@ -12636,11 +13215,14 @@
       <c r="L193" t="s">
         <v>22</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>364</v>
       </c>
@@ -12677,11 +13259,14 @@
       <c r="L194" t="s">
         <v>22</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194">
+        <v>1</v>
+      </c>
+      <c r="N194" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>191</v>
       </c>
@@ -12718,11 +13303,14 @@
       <c r="L195" t="s">
         <v>59</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>378</v>
       </c>
@@ -12759,11 +13347,14 @@
       <c r="L196" t="s">
         <v>22</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>109</v>
       </c>
@@ -12800,11 +13391,14 @@
       <c r="L197" t="s">
         <v>22</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>117</v>
       </c>
@@ -12841,11 +13435,14 @@
       <c r="L198" t="s">
         <v>22</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>38</v>
       </c>
@@ -12882,11 +13479,14 @@
       <c r="L199" t="s">
         <v>22</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>88</v>
       </c>
@@ -12923,11 +13523,14 @@
       <c r="L200" t="s">
         <v>22</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>214</v>
       </c>
@@ -12964,11 +13567,14 @@
       <c r="L201" t="s">
         <v>22</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>214</v>
       </c>
@@ -13005,11 +13611,14 @@
       <c r="L202" t="s">
         <v>22</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>378</v>
       </c>
@@ -13046,11 +13655,14 @@
       <c r="L203" t="s">
         <v>22</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>191</v>
       </c>
@@ -13087,11 +13699,14 @@
       <c r="L204" t="s">
         <v>59</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>191</v>
       </c>
@@ -13128,11 +13743,14 @@
       <c r="L205" t="s">
         <v>59</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>162</v>
       </c>
@@ -13169,11 +13787,14 @@
       <c r="L206" t="s">
         <v>59</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>364</v>
       </c>
@@ -13210,11 +13831,14 @@
       <c r="L207" t="s">
         <v>22</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>126</v>
       </c>
@@ -13251,11 +13875,14 @@
       <c r="L208" t="s">
         <v>59</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>364</v>
       </c>
@@ -13292,11 +13919,14 @@
       <c r="L209" t="s">
         <v>22</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>117</v>
       </c>
@@ -13333,11 +13963,14 @@
       <c r="L210" t="s">
         <v>59</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>645</v>
       </c>
@@ -13374,11 +14007,14 @@
       <c r="L211" t="s">
         <v>59</v>
       </c>
-      <c r="M211" t="s">
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>66</v>
       </c>
@@ -13415,11 +14051,14 @@
       <c r="L212" t="s">
         <v>22</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>467</v>
       </c>
@@ -13456,11 +14095,14 @@
       <c r="L213" t="s">
         <v>22</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>184</v>
       </c>
@@ -13497,11 +14139,14 @@
       <c r="L214" t="s">
         <v>22</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>117</v>
       </c>
@@ -13538,11 +14183,14 @@
       <c r="L215" t="s">
         <v>59</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>38</v>
       </c>
@@ -13579,11 +14227,14 @@
       <c r="L216" t="s">
         <v>22</v>
       </c>
-      <c r="M216" t="s">
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>131</v>
       </c>
@@ -13620,11 +14271,14 @@
       <c r="L217" t="s">
         <v>59</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>364</v>
       </c>
@@ -13661,11 +14315,14 @@
       <c r="L218" t="s">
         <v>22</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218">
+        <v>1</v>
+      </c>
+      <c r="N218" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>88</v>
       </c>
@@ -13702,11 +14359,14 @@
       <c r="L219" t="s">
         <v>22</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219">
+        <v>1</v>
+      </c>
+      <c r="N219" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>131</v>
       </c>
@@ -13743,11 +14403,14 @@
       <c r="L220" t="s">
         <v>59</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>682</v>
       </c>
@@ -13784,11 +14447,14 @@
       <c r="L221" t="s">
         <v>22</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>653</v>
       </c>
@@ -13825,11 +14491,14 @@
       <c r="L222" t="s">
         <v>22</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>682</v>
       </c>
@@ -13866,11 +14535,14 @@
       <c r="L223" t="s">
         <v>22</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>117</v>
       </c>
@@ -13907,11 +14579,14 @@
       <c r="L224" t="s">
         <v>59</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>184</v>
       </c>
@@ -13948,11 +14623,14 @@
       <c r="L225" t="s">
         <v>22</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>100</v>
       </c>
@@ -13989,11 +14667,14 @@
       <c r="L226" t="s">
         <v>22</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>146</v>
       </c>
@@ -14030,11 +14711,14 @@
       <c r="L227" t="s">
         <v>59</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>364</v>
       </c>
@@ -14071,11 +14755,14 @@
       <c r="L228" t="s">
         <v>22</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>138</v>
       </c>
@@ -14112,11 +14799,14 @@
       <c r="L229" t="s">
         <v>22</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>812</v>
       </c>
@@ -14153,11 +14843,14 @@
       <c r="L230" t="s">
         <v>22</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>100</v>
       </c>
@@ -14194,11 +14887,14 @@
       <c r="L231" t="s">
         <v>22</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>117</v>
       </c>
@@ -14235,11 +14931,14 @@
       <c r="L232" t="s">
         <v>59</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M232">
+        <v>1</v>
+      </c>
+      <c r="N232" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>146</v>
       </c>
@@ -14276,11 +14975,14 @@
       <c r="L233" t="s">
         <v>59</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>76</v>
       </c>
@@ -14317,11 +15019,14 @@
       <c r="L234" t="s">
         <v>22</v>
       </c>
-      <c r="M234" t="s">
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>397</v>
       </c>
@@ -14358,11 +15063,14 @@
       <c r="L235" t="s">
         <v>22</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>682</v>
       </c>
@@ -14399,11 +15107,14 @@
       <c r="L236" t="s">
         <v>22</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>191</v>
       </c>
@@ -14440,11 +15151,14 @@
       <c r="L237" t="s">
         <v>59</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>838</v>
       </c>
@@ -14481,11 +15195,14 @@
       <c r="L238" t="s">
         <v>59</v>
       </c>
-      <c r="M238" t="s">
+      <c r="M238">
+        <v>1</v>
+      </c>
+      <c r="N238" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>191</v>
       </c>
@@ -14522,11 +15239,14 @@
       <c r="L239" t="s">
         <v>59</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>191</v>
       </c>
@@ -14563,11 +15283,14 @@
       <c r="L240" t="s">
         <v>59</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>131</v>
       </c>
@@ -14604,11 +15327,14 @@
       <c r="L241" t="s">
         <v>59</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>52</v>
       </c>
@@ -14645,11 +15371,14 @@
       <c r="L242" t="s">
         <v>59</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>838</v>
       </c>
@@ -14686,11 +15415,14 @@
       <c r="L243" t="s">
         <v>59</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>315</v>
       </c>
@@ -14727,11 +15459,14 @@
       <c r="L244" t="s">
         <v>59</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>66</v>
       </c>
@@ -14768,11 +15503,14 @@
       <c r="L245" t="s">
         <v>22</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>860</v>
       </c>
@@ -14809,11 +15547,14 @@
       <c r="L246" t="s">
         <v>22</v>
       </c>
-      <c r="M246" t="s">
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>38</v>
       </c>
@@ -14850,11 +15591,14 @@
       <c r="L247" t="s">
         <v>22</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>117</v>
       </c>
@@ -14891,11 +15635,14 @@
       <c r="L248" t="s">
         <v>59</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248">
+        <v>1</v>
+      </c>
+      <c r="N248" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>126</v>
       </c>
@@ -14932,11 +15679,14 @@
       <c r="L249" t="s">
         <v>59</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>378</v>
       </c>
@@ -14973,11 +15723,14 @@
       <c r="L250" t="s">
         <v>22</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>131</v>
       </c>
@@ -15014,11 +15767,14 @@
       <c r="L251" t="s">
         <v>59</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>378</v>
       </c>
@@ -15055,11 +15811,14 @@
       <c r="L252" t="s">
         <v>22</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>76</v>
       </c>
@@ -15096,11 +15855,14 @@
       <c r="L253" t="s">
         <v>22</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>117</v>
       </c>
@@ -15137,11 +15899,14 @@
       <c r="L254" t="s">
         <v>59</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254">
+        <v>1</v>
+      </c>
+      <c r="N254" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>214</v>
       </c>
@@ -15178,11 +15943,14 @@
       <c r="L255" t="s">
         <v>22</v>
       </c>
-      <c r="M255" t="s">
+      <c r="M255">
+        <v>1</v>
+      </c>
+      <c r="N255" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>191</v>
       </c>
@@ -15219,11 +15987,14 @@
       <c r="L256" t="s">
         <v>59</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M256">
+        <v>1</v>
+      </c>
+      <c r="N256" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>893</v>
       </c>
@@ -15260,11 +16031,14 @@
       <c r="L257" t="s">
         <v>22</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>38</v>
       </c>
@@ -15301,11 +16075,14 @@
       <c r="L258" t="s">
         <v>22</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>214</v>
       </c>
@@ -15342,11 +16119,14 @@
       <c r="L259" t="s">
         <v>22</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>45</v>
       </c>
@@ -15383,11 +16163,14 @@
       <c r="L260" t="s">
         <v>22</v>
       </c>
-      <c r="M260" t="s">
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>214</v>
       </c>
@@ -15424,11 +16207,14 @@
       <c r="L261" t="s">
         <v>22</v>
       </c>
-      <c r="M261" t="s">
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>38</v>
       </c>
@@ -15465,11 +16251,14 @@
       <c r="L262" t="s">
         <v>22</v>
       </c>
-      <c r="M262" t="s">
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>52</v>
       </c>
@@ -15506,11 +16295,14 @@
       <c r="L263" t="s">
         <v>59</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>126</v>
       </c>
@@ -15547,11 +16339,14 @@
       <c r="L264" t="s">
         <v>59</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>126</v>
       </c>
@@ -15588,11 +16383,14 @@
       <c r="L265" t="s">
         <v>59</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>126</v>
       </c>
@@ -15629,11 +16427,14 @@
       <c r="L266" t="s">
         <v>59</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>250</v>
       </c>
@@ -15670,11 +16471,14 @@
       <c r="L267" t="s">
         <v>22</v>
       </c>
-      <c r="M267" t="s">
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>838</v>
       </c>
@@ -15711,11 +16515,14 @@
       <c r="L268" t="s">
         <v>59</v>
       </c>
-      <c r="M268" t="s">
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>682</v>
       </c>
@@ -15752,11 +16559,14 @@
       <c r="L269" t="s">
         <v>22</v>
       </c>
-      <c r="M269" t="s">
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>250</v>
       </c>
@@ -15793,11 +16603,14 @@
       <c r="L270" t="s">
         <v>22</v>
       </c>
-      <c r="M270" t="s">
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>191</v>
       </c>
@@ -15834,11 +16647,14 @@
       <c r="L271" t="s">
         <v>59</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>117</v>
       </c>
@@ -15875,11 +16691,14 @@
       <c r="L272" t="s">
         <v>22</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>52</v>
       </c>
@@ -15916,11 +16735,14 @@
       <c r="L273" t="s">
         <v>59</v>
       </c>
-      <c r="M273" t="s">
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>38</v>
       </c>
@@ -15957,11 +16779,14 @@
       <c r="L274" t="s">
         <v>22</v>
       </c>
-      <c r="M274" t="s">
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>38</v>
       </c>
@@ -15998,11 +16823,14 @@
       <c r="L275" t="s">
         <v>22</v>
       </c>
-      <c r="M275" t="s">
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>214</v>
       </c>
@@ -16039,11 +16867,14 @@
       <c r="L276" t="s">
         <v>22</v>
       </c>
-      <c r="M276" t="s">
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>214</v>
       </c>
@@ -16080,11 +16911,14 @@
       <c r="L277" t="s">
         <v>22</v>
       </c>
-      <c r="M277" t="s">
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>38</v>
       </c>
@@ -16121,11 +16955,14 @@
       <c r="L278" t="s">
         <v>22</v>
       </c>
-      <c r="M278" t="s">
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>214</v>
       </c>
@@ -16162,11 +16999,14 @@
       <c r="L279" t="s">
         <v>22</v>
       </c>
-      <c r="M279" t="s">
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>191</v>
       </c>
@@ -16203,11 +17043,14 @@
       <c r="L280" t="s">
         <v>59</v>
       </c>
-      <c r="M280" t="s">
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>378</v>
       </c>
@@ -16244,11 +17087,14 @@
       <c r="L281" t="s">
         <v>22</v>
       </c>
-      <c r="M281" t="s">
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>364</v>
       </c>
@@ -16285,11 +17131,14 @@
       <c r="L282" t="s">
         <v>22</v>
       </c>
-      <c r="M282" t="s">
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>214</v>
       </c>
@@ -16326,11 +17175,14 @@
       <c r="L283" t="s">
         <v>22</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>38</v>
       </c>
@@ -16367,11 +17219,14 @@
       <c r="L284" t="s">
         <v>22</v>
       </c>
-      <c r="M284" t="s">
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>146</v>
       </c>
@@ -16408,11 +17263,14 @@
       <c r="L285" t="s">
         <v>59</v>
       </c>
-      <c r="M285" t="s">
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>214</v>
       </c>
@@ -16449,11 +17307,14 @@
       <c r="L286" t="s">
         <v>22</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>378</v>
       </c>
@@ -16490,11 +17351,14 @@
       <c r="L287" t="s">
         <v>22</v>
       </c>
-      <c r="M287" t="s">
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>214</v>
       </c>
@@ -16531,11 +17395,14 @@
       <c r="L288" t="s">
         <v>22</v>
       </c>
-      <c r="M288" t="s">
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>52</v>
       </c>
@@ -16572,11 +17439,14 @@
       <c r="L289" t="s">
         <v>59</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>126</v>
       </c>
@@ -16613,11 +17483,14 @@
       <c r="L290" t="s">
         <v>59</v>
       </c>
-      <c r="M290" t="s">
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>191</v>
       </c>
@@ -16654,11 +17527,14 @@
       <c r="L291" t="s">
         <v>59</v>
       </c>
-      <c r="M291" t="s">
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>214</v>
       </c>
@@ -16695,11 +17571,14 @@
       <c r="L292" t="s">
         <v>22</v>
       </c>
-      <c r="M292" t="s">
+      <c r="M292">
+        <v>1</v>
+      </c>
+      <c r="N292" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>214</v>
       </c>
@@ -16736,11 +17615,14 @@
       <c r="L293" t="s">
         <v>22</v>
       </c>
-      <c r="M293" t="s">
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>378</v>
       </c>
@@ -16777,11 +17659,14 @@
       <c r="L294" t="s">
         <v>22</v>
       </c>
-      <c r="M294" t="s">
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>38</v>
       </c>
@@ -16818,11 +17703,14 @@
       <c r="L295" t="s">
         <v>22</v>
       </c>
-      <c r="M295" t="s">
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>131</v>
       </c>
@@ -16859,11 +17747,14 @@
       <c r="L296" t="s">
         <v>59</v>
       </c>
-      <c r="M296" t="s">
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>71</v>
       </c>
@@ -16900,11 +17791,14 @@
       <c r="L297" t="s">
         <v>22</v>
       </c>
-      <c r="M297" t="s">
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>38</v>
       </c>
@@ -16941,11 +17835,14 @@
       <c r="L298" t="s">
         <v>22</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>126</v>
       </c>
@@ -16982,11 +17879,14 @@
       <c r="L299" t="s">
         <v>59</v>
       </c>
-      <c r="M299" t="s">
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>45</v>
       </c>
@@ -17023,11 +17923,14 @@
       <c r="L300" t="s">
         <v>22</v>
       </c>
-      <c r="M300" t="s">
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>45</v>
       </c>
@@ -17064,11 +17967,14 @@
       <c r="L301" t="s">
         <v>22</v>
       </c>
-      <c r="M301" t="s">
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>45</v>
       </c>
@@ -17105,11 +18011,14 @@
       <c r="L302" t="s">
         <v>22</v>
       </c>
-      <c r="M302" t="s">
+      <c r="M302">
+        <v>1</v>
+      </c>
+      <c r="N302" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>191</v>
       </c>
@@ -17146,11 +18055,14 @@
       <c r="L303" t="s">
         <v>59</v>
       </c>
-      <c r="M303" t="s">
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>126</v>
       </c>
@@ -17187,11 +18099,14 @@
       <c r="L304" t="s">
         <v>59</v>
       </c>
-      <c r="M304" t="s">
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>38</v>
       </c>
@@ -17228,11 +18143,14 @@
       <c r="L305" t="s">
         <v>22</v>
       </c>
-      <c r="M305" t="s">
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>113</v>
       </c>
@@ -17269,11 +18187,14 @@
       <c r="L306" t="s">
         <v>59</v>
       </c>
-      <c r="M306" t="s">
+      <c r="M306">
+        <v>1</v>
+      </c>
+      <c r="N306" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>113</v>
       </c>
@@ -17310,11 +18231,14 @@
       <c r="L307" t="s">
         <v>59</v>
       </c>
-      <c r="M307" t="s">
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>131</v>
       </c>
@@ -17351,11 +18275,14 @@
       <c r="L308" t="s">
         <v>59</v>
       </c>
-      <c r="M308" t="s">
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>88</v>
       </c>
@@ -17392,11 +18319,14 @@
       <c r="L309" t="s">
         <v>22</v>
       </c>
-      <c r="M309" t="s">
+      <c r="M309">
+        <v>1</v>
+      </c>
+      <c r="N309" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>126</v>
       </c>
@@ -17433,11 +18363,14 @@
       <c r="L310" t="s">
         <v>59</v>
       </c>
-      <c r="M310" t="s">
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>682</v>
       </c>
@@ -17474,11 +18407,14 @@
       <c r="L311" t="s">
         <v>22</v>
       </c>
-      <c r="M311" t="s">
+      <c r="M311">
+        <v>1</v>
+      </c>
+      <c r="N311" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>682</v>
       </c>
@@ -17515,11 +18451,14 @@
       <c r="L312" t="s">
         <v>22</v>
       </c>
-      <c r="M312" t="s">
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312" t="s">
         <v>1053</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>131</v>
       </c>
@@ -17556,11 +18495,14 @@
       <c r="L313" t="s">
         <v>59</v>
       </c>
-      <c r="M313" t="s">
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>45</v>
       </c>
@@ -17597,11 +18539,14 @@
       <c r="L314" t="s">
         <v>22</v>
       </c>
-      <c r="M314" t="s">
+      <c r="M314">
+        <v>1</v>
+      </c>
+      <c r="N314" t="s">
         <v>1059</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>838</v>
       </c>
@@ -17638,11 +18583,14 @@
       <c r="L315" t="s">
         <v>59</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>38</v>
       </c>
@@ -17679,11 +18627,14 @@
       <c r="L316" t="s">
         <v>22</v>
       </c>
-      <c r="M316" t="s">
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316" t="s">
         <v>1064</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>38</v>
       </c>
@@ -17720,11 +18671,14 @@
       <c r="L317" t="s">
         <v>22</v>
       </c>
-      <c r="M317" t="s">
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>76</v>
       </c>
@@ -17761,11 +18715,14 @@
       <c r="L318" t="s">
         <v>22</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M318">
+        <v>1</v>
+      </c>
+      <c r="N318" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>1071</v>
       </c>
@@ -17802,11 +18759,14 @@
       <c r="L319" t="s">
         <v>59</v>
       </c>
-      <c r="M319" t="s">
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319" t="s">
         <v>1073</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>126</v>
       </c>
@@ -17843,11 +18803,14 @@
       <c r="L320" t="s">
         <v>59</v>
       </c>
-      <c r="M320" t="s">
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>682</v>
       </c>
@@ -17884,11 +18847,14 @@
       <c r="L321" t="s">
         <v>22</v>
       </c>
-      <c r="M321" t="s">
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321" t="s">
         <v>1079</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>467</v>
       </c>
@@ -17925,11 +18891,14 @@
       <c r="L322" t="s">
         <v>22</v>
       </c>
-      <c r="M322" t="s">
+      <c r="M322">
+        <v>1</v>
+      </c>
+      <c r="N322" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>131</v>
       </c>
@@ -17966,11 +18935,14 @@
       <c r="L323" t="s">
         <v>59</v>
       </c>
-      <c r="M323" t="s">
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>45</v>
       </c>
@@ -18007,11 +18979,14 @@
       <c r="L324" t="s">
         <v>22</v>
       </c>
-      <c r="M324" t="s">
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324" t="s">
         <v>1087</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>126</v>
       </c>
@@ -18048,11 +19023,14 @@
       <c r="L325" t="s">
         <v>59</v>
       </c>
-      <c r="M325" t="s">
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>682</v>
       </c>
@@ -18089,11 +19067,14 @@
       <c r="L326" t="s">
         <v>22</v>
       </c>
-      <c r="M326" t="s">
+      <c r="M326">
+        <v>1</v>
+      </c>
+      <c r="N326" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>100</v>
       </c>
@@ -18130,11 +19111,14 @@
       <c r="L327" t="s">
         <v>22</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>109</v>
       </c>
@@ -18171,11 +19155,14 @@
       <c r="L328" t="s">
         <v>22</v>
       </c>
-      <c r="M328" t="s">
+      <c r="M328">
+        <v>0</v>
+      </c>
+      <c r="N328" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>109</v>
       </c>
@@ -18212,11 +19199,14 @@
       <c r="L329" t="s">
         <v>22</v>
       </c>
-      <c r="M329" t="s">
+      <c r="M329">
+        <v>1</v>
+      </c>
+      <c r="N329" t="s">
         <v>1103</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>38</v>
       </c>
@@ -18253,11 +19243,14 @@
       <c r="L330" t="s">
         <v>22</v>
       </c>
-      <c r="M330" t="s">
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>146</v>
       </c>
@@ -18294,11 +19287,14 @@
       <c r="L331" t="s">
         <v>59</v>
       </c>
-      <c r="M331" t="s">
+      <c r="M331">
+        <v>1</v>
+      </c>
+      <c r="N331" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>71</v>
       </c>
@@ -18335,11 +19331,14 @@
       <c r="L332" t="s">
         <v>22</v>
       </c>
-      <c r="M332" t="s">
+      <c r="M332">
+        <v>1</v>
+      </c>
+      <c r="N332" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>38</v>
       </c>
@@ -18376,11 +19375,14 @@
       <c r="L333" t="s">
         <v>22</v>
       </c>
-      <c r="M333" t="s">
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333" t="s">
         <v>1115</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>38</v>
       </c>
@@ -18417,11 +19419,14 @@
       <c r="L334" t="s">
         <v>22</v>
       </c>
-      <c r="M334" t="s">
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>100</v>
       </c>
@@ -18458,11 +19463,14 @@
       <c r="L335" t="s">
         <v>22</v>
       </c>
-      <c r="M335" t="s">
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335" t="s">
         <v>1121</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>109</v>
       </c>
@@ -18499,11 +19507,14 @@
       <c r="L336" t="s">
         <v>22</v>
       </c>
-      <c r="M336" t="s">
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336" t="s">
         <v>1123</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>131</v>
       </c>
@@ -18540,11 +19551,14 @@
       <c r="L337" t="s">
         <v>59</v>
       </c>
-      <c r="M337" t="s">
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>100</v>
       </c>
@@ -18581,11 +19595,14 @@
       <c r="L338" t="s">
         <v>22</v>
       </c>
-      <c r="M338" t="s">
+      <c r="M338">
+        <v>1</v>
+      </c>
+      <c r="N338" t="s">
         <v>1129</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>100</v>
       </c>
@@ -18622,11 +19639,14 @@
       <c r="L339" t="s">
         <v>22</v>
       </c>
-      <c r="M339" t="s">
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>100</v>
       </c>
@@ -18663,11 +19683,14 @@
       <c r="L340" t="s">
         <v>22</v>
       </c>
-      <c r="M340" t="s">
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340" t="s">
         <v>1134</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>100</v>
       </c>
@@ -18704,11 +19727,14 @@
       <c r="L341" t="s">
         <v>22</v>
       </c>
-      <c r="M341" t="s">
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341" t="s">
         <v>1137</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>191</v>
       </c>
@@ -18745,11 +19771,14 @@
       <c r="L342" t="s">
         <v>59</v>
       </c>
-      <c r="M342" t="s">
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>349</v>
       </c>
@@ -18786,11 +19815,14 @@
       <c r="L343" t="s">
         <v>22</v>
       </c>
-      <c r="M343" t="s">
+      <c r="M343">
+        <v>1</v>
+      </c>
+      <c r="N343" t="s">
         <v>1143</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>131</v>
       </c>
@@ -18827,11 +19859,14 @@
       <c r="L344" t="s">
         <v>59</v>
       </c>
-      <c r="M344" t="s">
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>214</v>
       </c>
@@ -18868,11 +19903,14 @@
       <c r="L345" t="s">
         <v>22</v>
       </c>
-      <c r="M345" t="s">
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>214</v>
       </c>
@@ -18909,11 +19947,14 @@
       <c r="L346" t="s">
         <v>22</v>
       </c>
-      <c r="M346" t="s">
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346" t="s">
         <v>1151</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>131</v>
       </c>
@@ -18950,11 +19991,14 @@
       <c r="L347" t="s">
         <v>59</v>
       </c>
-      <c r="M347" t="s">
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>349</v>
       </c>
@@ -18991,11 +20035,14 @@
       <c r="L348" t="s">
         <v>22</v>
       </c>
-      <c r="M348" t="s">
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>131</v>
       </c>
@@ -19032,11 +20079,14 @@
       <c r="L349" t="s">
         <v>59</v>
       </c>
-      <c r="M349" t="s">
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>38</v>
       </c>
@@ -19073,11 +20123,14 @@
       <c r="L350" t="s">
         <v>22</v>
       </c>
-      <c r="M350" t="s">
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350" t="s">
         <v>1161</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>349</v>
       </c>
@@ -19114,11 +20167,14 @@
       <c r="L351" t="s">
         <v>22</v>
       </c>
-      <c r="M351" t="s">
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="N351" t="s">
         <v>1164</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>214</v>
       </c>
@@ -19155,11 +20211,14 @@
       <c r="L352" t="s">
         <v>22</v>
       </c>
-      <c r="M352" t="s">
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>88</v>
       </c>
@@ -19196,11 +20255,14 @@
       <c r="L353" t="s">
         <v>22</v>
       </c>
-      <c r="M353" t="s">
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353" t="s">
         <v>1169</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>214</v>
       </c>
@@ -19237,11 +20299,14 @@
       <c r="L354" t="s">
         <v>22</v>
       </c>
-      <c r="M354" t="s">
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354" t="s">
         <v>1171</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>214</v>
       </c>
@@ -19278,11 +20343,14 @@
       <c r="L355" t="s">
         <v>22</v>
       </c>
-      <c r="M355" t="s">
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>214</v>
       </c>
@@ -19319,11 +20387,14 @@
       <c r="L356" t="s">
         <v>22</v>
       </c>
-      <c r="M356" t="s">
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>214</v>
       </c>
@@ -19360,11 +20431,14 @@
       <c r="L357" t="s">
         <v>22</v>
       </c>
-      <c r="M357" t="s">
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>214</v>
       </c>
@@ -19401,11 +20475,14 @@
       <c r="L358" t="s">
         <v>22</v>
       </c>
-      <c r="M358" t="s">
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>585</v>
       </c>
@@ -19442,11 +20519,14 @@
       <c r="L359" t="s">
         <v>59</v>
       </c>
-      <c r="M359" t="s">
+      <c r="M359">
+        <v>1</v>
+      </c>
+      <c r="N359" t="s">
         <v>1185</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>378</v>
       </c>
@@ -19483,11 +20563,14 @@
       <c r="L360" t="s">
         <v>22</v>
       </c>
-      <c r="M360" t="s">
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360" t="s">
         <v>1188</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>682</v>
       </c>
@@ -19524,11 +20607,14 @@
       <c r="L361" t="s">
         <v>22</v>
       </c>
-      <c r="M361" t="s">
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>378</v>
       </c>
@@ -19565,11 +20651,14 @@
       <c r="L362" t="s">
         <v>22</v>
       </c>
-      <c r="M362" t="s">
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362" t="s">
         <v>1193</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>109</v>
       </c>
@@ -19606,11 +20695,14 @@
       <c r="L363" t="s">
         <v>22</v>
       </c>
-      <c r="M363" t="s">
+      <c r="M363">
+        <v>1</v>
+      </c>
+      <c r="N363" t="s">
         <v>1195</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>364</v>
       </c>
@@ -19647,11 +20739,14 @@
       <c r="L364" t="s">
         <v>22</v>
       </c>
-      <c r="M364" t="s">
+      <c r="M364">
+        <v>1</v>
+      </c>
+      <c r="N364" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>38</v>
       </c>
@@ -19688,11 +20783,14 @@
       <c r="L365" t="s">
         <v>22</v>
       </c>
-      <c r="M365" t="s">
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365" t="s">
         <v>1200</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>126</v>
       </c>
@@ -19729,11 +20827,14 @@
       <c r="L366" t="s">
         <v>59</v>
       </c>
-      <c r="M366" t="s">
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>682</v>
       </c>
@@ -19770,11 +20871,14 @@
       <c r="L367" t="s">
         <v>22</v>
       </c>
-      <c r="M367" t="s">
+      <c r="M367">
+        <v>1</v>
+      </c>
+      <c r="N367" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>349</v>
       </c>
@@ -19811,11 +20915,14 @@
       <c r="L368" t="s">
         <v>22</v>
       </c>
-      <c r="M368" t="s">
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368" t="s">
         <v>1208</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>126</v>
       </c>
@@ -19852,11 +20959,14 @@
       <c r="L369" t="s">
         <v>59</v>
       </c>
-      <c r="M369" t="s">
+      <c r="M369">
+        <v>0</v>
+      </c>
+      <c r="N369" t="s">
         <v>1211</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>131</v>
       </c>
@@ -19893,11 +21003,14 @@
       <c r="L370" t="s">
         <v>59</v>
       </c>
-      <c r="M370" t="s">
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370" t="s">
         <v>1214</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>45</v>
       </c>
@@ -19934,11 +21047,14 @@
       <c r="L371" t="s">
         <v>22</v>
       </c>
-      <c r="M371" t="s">
+      <c r="M371">
+        <v>1</v>
+      </c>
+      <c r="N371" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>378</v>
       </c>
@@ -19975,11 +21091,14 @@
       <c r="L372" t="s">
         <v>22</v>
       </c>
-      <c r="M372" t="s">
+      <c r="M372">
+        <v>1</v>
+      </c>
+      <c r="N372" t="s">
         <v>1220</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>838</v>
       </c>
@@ -20016,11 +21135,14 @@
       <c r="L373" t="s">
         <v>59</v>
       </c>
-      <c r="M373" t="s">
+      <c r="M373">
+        <v>1</v>
+      </c>
+      <c r="N373" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>682</v>
       </c>
@@ -20057,11 +21179,14 @@
       <c r="L374" t="s">
         <v>22</v>
       </c>
-      <c r="M374" t="s">
+      <c r="M374">
+        <v>0</v>
+      </c>
+      <c r="N374" t="s">
         <v>1225</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>45</v>
       </c>
@@ -20098,11 +21223,14 @@
       <c r="L375" t="s">
         <v>22</v>
       </c>
-      <c r="M375" t="s">
+      <c r="M375">
+        <v>1</v>
+      </c>
+      <c r="N375" t="s">
         <v>1227</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>88</v>
       </c>
@@ -20139,11 +21267,14 @@
       <c r="L376" t="s">
         <v>22</v>
       </c>
-      <c r="M376" t="s">
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376" t="s">
         <v>1230</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>45</v>
       </c>
@@ -20180,11 +21311,14 @@
       <c r="L377" t="s">
         <v>22</v>
       </c>
-      <c r="M377" t="s">
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>214</v>
       </c>
@@ -20221,11 +21355,14 @@
       <c r="L378" t="s">
         <v>22</v>
       </c>
-      <c r="M378" t="s">
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378" t="s">
         <v>1235</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>113</v>
       </c>
@@ -20262,11 +21399,14 @@
       <c r="L379" t="s">
         <v>59</v>
       </c>
-      <c r="M379" t="s">
+      <c r="M379">
+        <v>1</v>
+      </c>
+      <c r="N379" t="s">
         <v>1238</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>214</v>
       </c>
@@ -20303,11 +21443,14 @@
       <c r="L380" t="s">
         <v>22</v>
       </c>
-      <c r="M380" t="s">
+      <c r="M380">
+        <v>0</v>
+      </c>
+      <c r="N380" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>682</v>
       </c>
@@ -20344,11 +21487,14 @@
       <c r="L381" t="s">
         <v>22</v>
       </c>
-      <c r="M381" t="s">
+      <c r="M381">
+        <v>1</v>
+      </c>
+      <c r="N381" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>45</v>
       </c>
@@ -20385,11 +21531,14 @@
       <c r="L382" t="s">
         <v>22</v>
       </c>
-      <c r="M382" t="s">
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382" t="s">
         <v>1247</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>1248</v>
       </c>
@@ -20426,11 +21575,14 @@
       <c r="L383" t="s">
         <v>22</v>
       </c>
-      <c r="M383" t="s">
+      <c r="M383">
+        <v>0</v>
+      </c>
+      <c r="N383" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>113</v>
       </c>
@@ -20467,11 +21619,14 @@
       <c r="L384" t="s">
         <v>59</v>
       </c>
-      <c r="M384" t="s">
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>214</v>
       </c>
@@ -20508,11 +21663,14 @@
       <c r="L385" t="s">
         <v>22</v>
       </c>
-      <c r="M385" t="s">
+      <c r="M385">
+        <v>0</v>
+      </c>
+      <c r="N385" t="s">
         <v>1257</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>45</v>
       </c>
@@ -20549,11 +21707,14 @@
       <c r="L386" t="s">
         <v>22</v>
       </c>
-      <c r="M386" t="s">
+      <c r="M386">
+        <v>0</v>
+      </c>
+      <c r="N386" t="s">
         <v>1260</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>126</v>
       </c>
@@ -20590,11 +21751,14 @@
       <c r="L387" t="s">
         <v>59</v>
       </c>
-      <c r="M387" t="s">
+      <c r="M387">
+        <v>0</v>
+      </c>
+      <c r="N387" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>682</v>
       </c>
@@ -20631,11 +21795,14 @@
       <c r="L388" t="s">
         <v>22</v>
       </c>
-      <c r="M388" t="s">
+      <c r="M388">
+        <v>0</v>
+      </c>
+      <c r="N388" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>146</v>
       </c>
@@ -20672,11 +21839,14 @@
       <c r="L389" t="s">
         <v>59</v>
       </c>
-      <c r="M389" t="s">
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389" t="s">
         <v>1269</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>45</v>
       </c>
@@ -20713,11 +21883,14 @@
       <c r="L390" t="s">
         <v>22</v>
       </c>
-      <c r="M390" t="s">
+      <c r="M390">
+        <v>1</v>
+      </c>
+      <c r="N390" t="s">
         <v>1271</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>191</v>
       </c>
@@ -20754,11 +21927,14 @@
       <c r="L391" t="s">
         <v>59</v>
       </c>
-      <c r="M391" t="s">
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391" t="s">
         <v>1274</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>191</v>
       </c>
@@ -20795,11 +21971,14 @@
       <c r="L392" t="s">
         <v>59</v>
       </c>
-      <c r="M392" t="s">
+      <c r="M392">
+        <v>1</v>
+      </c>
+      <c r="N392" t="s">
         <v>1276</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>191</v>
       </c>
@@ -20836,11 +22015,14 @@
       <c r="L393" t="s">
         <v>59</v>
       </c>
-      <c r="M393" t="s">
+      <c r="M393">
+        <v>0</v>
+      </c>
+      <c r="N393" t="s">
         <v>1279</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>45</v>
       </c>
@@ -20877,11 +22059,14 @@
       <c r="L394" t="s">
         <v>22</v>
       </c>
-      <c r="M394" t="s">
+      <c r="M394">
+        <v>1</v>
+      </c>
+      <c r="N394" t="s">
         <v>1281</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>76</v>
       </c>
@@ -20918,11 +22103,14 @@
       <c r="L395" t="s">
         <v>22</v>
       </c>
-      <c r="M395" t="s">
+      <c r="M395">
+        <v>1</v>
+      </c>
+      <c r="N395" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>131</v>
       </c>
@@ -20959,11 +22147,14 @@
       <c r="L396" t="s">
         <v>59</v>
       </c>
-      <c r="M396" t="s">
+      <c r="M396">
+        <v>0</v>
+      </c>
+      <c r="N396" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>214</v>
       </c>
@@ -21000,11 +22191,14 @@
       <c r="L397" t="s">
         <v>22</v>
       </c>
-      <c r="M397" t="s">
+      <c r="M397">
+        <v>0</v>
+      </c>
+      <c r="N397" t="s">
         <v>1289</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>214</v>
       </c>
@@ -21041,11 +22235,14 @@
       <c r="L398" t="s">
         <v>22</v>
       </c>
-      <c r="M398" t="s">
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398" t="s">
         <v>1292</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1248</v>
       </c>
@@ -21082,11 +22279,14 @@
       <c r="L399" t="s">
         <v>22</v>
       </c>
-      <c r="M399" t="s">
+      <c r="M399">
+        <v>0</v>
+      </c>
+      <c r="N399" t="s">
         <v>1295</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>191</v>
       </c>
@@ -21123,11 +22323,14 @@
       <c r="L400" t="s">
         <v>59</v>
       </c>
-      <c r="M400" t="s">
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400" t="s">
         <v>1297</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>45</v>
       </c>
@@ -21164,11 +22367,14 @@
       <c r="L401" t="s">
         <v>22</v>
       </c>
-      <c r="M401" t="s">
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>191</v>
       </c>
@@ -21205,11 +22411,14 @@
       <c r="L402" t="s">
         <v>59</v>
       </c>
-      <c r="M402" t="s">
+      <c r="M402">
+        <v>0</v>
+      </c>
+      <c r="N402" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>645</v>
       </c>
@@ -21246,11 +22455,14 @@
       <c r="L403" t="s">
         <v>59</v>
       </c>
-      <c r="M403" t="s">
+      <c r="M403">
+        <v>0</v>
+      </c>
+      <c r="N403" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>191</v>
       </c>
@@ -21287,11 +22499,14 @@
       <c r="L404" t="s">
         <v>59</v>
       </c>
-      <c r="M404" t="s">
+      <c r="M404">
+        <v>0</v>
+      </c>
+      <c r="N404" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>364</v>
       </c>
@@ -21328,11 +22543,14 @@
       <c r="L405" t="s">
         <v>22</v>
       </c>
-      <c r="M405" t="s">
+      <c r="M405">
+        <v>0</v>
+      </c>
+      <c r="N405" t="s">
         <v>1309</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>354</v>
       </c>
@@ -21369,11 +22587,14 @@
       <c r="L406" t="s">
         <v>22</v>
       </c>
-      <c r="M406" t="s">
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406" t="s">
         <v>1312</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>682</v>
       </c>
@@ -21410,11 +22631,14 @@
       <c r="L407" t="s">
         <v>22</v>
       </c>
-      <c r="M407" t="s">
+      <c r="M407">
+        <v>1</v>
+      </c>
+      <c r="N407" t="s">
         <v>1314</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>52</v>
       </c>
@@ -21451,11 +22675,14 @@
       <c r="L408" t="s">
         <v>59</v>
       </c>
-      <c r="M408" t="s">
+      <c r="M408">
+        <v>1</v>
+      </c>
+      <c r="N408" t="s">
         <v>1317</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>349</v>
       </c>
@@ -21492,11 +22719,14 @@
       <c r="L409" t="s">
         <v>22</v>
       </c>
-      <c r="M409" t="s">
+      <c r="M409">
+        <v>1</v>
+      </c>
+      <c r="N409" t="s">
         <v>1320</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>1321</v>
       </c>
@@ -21533,11 +22763,14 @@
       <c r="L410" t="s">
         <v>22</v>
       </c>
-      <c r="M410" t="s">
+      <c r="M410">
+        <v>1</v>
+      </c>
+      <c r="N410" t="s">
         <v>1325</v>
       </c>
     </row>
-    <row r="411" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>367</v>
       </c>
@@ -21574,11 +22807,14 @@
       <c r="L411" t="s">
         <v>22</v>
       </c>
-      <c r="M411" t="s">
+      <c r="M411">
+        <v>0</v>
+      </c>
+      <c r="N411" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="412" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>117</v>
       </c>
@@ -21615,11 +22851,14 @@
       <c r="L412" t="s">
         <v>59</v>
       </c>
-      <c r="M412" t="s">
+      <c r="M412">
+        <v>1</v>
+      </c>
+      <c r="N412" t="s">
         <v>1331</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>349</v>
       </c>
@@ -21656,11 +22895,14 @@
       <c r="L413" t="s">
         <v>22</v>
       </c>
-      <c r="M413" t="s">
+      <c r="M413">
+        <v>0</v>
+      </c>
+      <c r="N413" t="s">
         <v>1334</v>
       </c>
     </row>
-    <row r="414" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>1335</v>
       </c>
@@ -21697,11 +22939,14 @@
       <c r="L414" t="s">
         <v>59</v>
       </c>
-      <c r="M414" t="s">
+      <c r="M414">
+        <v>0</v>
+      </c>
+      <c r="N414" t="s">
         <v>1337</v>
       </c>
     </row>
-    <row r="415" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>1335</v>
       </c>
@@ -21738,11 +22983,14 @@
       <c r="L415" t="s">
         <v>59</v>
       </c>
-      <c r="M415" t="s">
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>1335</v>
       </c>
@@ -21779,11 +23027,14 @@
       <c r="L416" t="s">
         <v>59</v>
       </c>
-      <c r="M416" t="s">
+      <c r="M416">
+        <v>0</v>
+      </c>
+      <c r="N416" t="s">
         <v>1343</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>1335</v>
       </c>
@@ -21820,11 +23071,14 @@
       <c r="L417" t="s">
         <v>59</v>
       </c>
-      <c r="M417" t="s">
+      <c r="M417">
+        <v>0</v>
+      </c>
+      <c r="N417" t="s">
         <v>1346</v>
       </c>
     </row>
-    <row r="418" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>76</v>
       </c>
@@ -21861,11 +23115,14 @@
       <c r="L418" t="s">
         <v>22</v>
       </c>
-      <c r="M418" t="s">
+      <c r="M418">
+        <v>1</v>
+      </c>
+      <c r="N418" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="419" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>374</v>
       </c>
@@ -21902,11 +23159,14 @@
       <c r="L419" t="s">
         <v>22</v>
       </c>
-      <c r="M419" t="s">
+      <c r="M419">
+        <v>0</v>
+      </c>
+      <c r="N419" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="420" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>117</v>
       </c>
@@ -21943,11 +23203,14 @@
       <c r="L420" t="s">
         <v>59</v>
       </c>
-      <c r="M420" t="s">
+      <c r="M420">
+        <v>1</v>
+      </c>
+      <c r="N420" t="s">
         <v>1356</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>191</v>
       </c>
@@ -21984,11 +23247,14 @@
       <c r="L421" t="s">
         <v>59</v>
       </c>
-      <c r="M421" t="s">
+      <c r="M421">
+        <v>0</v>
+      </c>
+      <c r="N421" t="s">
         <v>1359</v>
       </c>
     </row>
-    <row r="422" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>191</v>
       </c>
@@ -22025,11 +23291,14 @@
       <c r="L422" t="s">
         <v>59</v>
       </c>
-      <c r="M422" t="s">
+      <c r="M422">
+        <v>0</v>
+      </c>
+      <c r="N422" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>24</v>
       </c>
@@ -22066,11 +23335,14 @@
       <c r="L423" t="s">
         <v>22</v>
       </c>
-      <c r="M423" t="s">
+      <c r="M423">
+        <v>0</v>
+      </c>
+      <c r="N423" t="s">
         <v>1365</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>131</v>
       </c>
@@ -22107,11 +23379,14 @@
       <c r="L424" t="s">
         <v>59</v>
       </c>
-      <c r="M424" t="s">
+      <c r="M424">
+        <v>0</v>
+      </c>
+      <c r="N424" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>214</v>
       </c>
@@ -22148,11 +23423,14 @@
       <c r="L425" t="s">
         <v>22</v>
       </c>
-      <c r="M425" t="s">
+      <c r="M425">
+        <v>0</v>
+      </c>
+      <c r="N425" t="s">
         <v>1371</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>138</v>
       </c>
@@ -22189,11 +23467,14 @@
       <c r="L426" t="s">
         <v>22</v>
       </c>
-      <c r="M426" t="s">
+      <c r="M426">
+        <v>0</v>
+      </c>
+      <c r="N426" t="s">
         <v>1374</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>146</v>
       </c>
@@ -22230,11 +23511,14 @@
       <c r="L427" t="s">
         <v>59</v>
       </c>
-      <c r="M427" t="s">
+      <c r="M427">
+        <v>1</v>
+      </c>
+      <c r="N427" t="s">
         <v>1377</v>
       </c>
     </row>
-    <row r="428" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>138</v>
       </c>
@@ -22271,11 +23555,14 @@
       <c r="L428" t="s">
         <v>22</v>
       </c>
-      <c r="M428" t="s">
+      <c r="M428">
+        <v>0</v>
+      </c>
+      <c r="N428" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>126</v>
       </c>
@@ -22312,11 +23599,14 @@
       <c r="L429" t="s">
         <v>59</v>
       </c>
-      <c r="M429" t="s">
+      <c r="M429">
+        <v>1</v>
+      </c>
+      <c r="N429" t="s">
         <v>1383</v>
       </c>
     </row>
-    <row r="430" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>45</v>
       </c>
@@ -22353,11 +23643,14 @@
       <c r="L430" t="s">
         <v>22</v>
       </c>
-      <c r="M430" t="s">
+      <c r="M430">
+        <v>0</v>
+      </c>
+      <c r="N430" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="431" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>45</v>
       </c>
@@ -22394,11 +23687,14 @@
       <c r="L431" t="s">
         <v>22</v>
       </c>
-      <c r="M431" t="s">
+      <c r="M431">
+        <v>1</v>
+      </c>
+      <c r="N431" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="432" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>38</v>
       </c>
@@ -22435,11 +23731,14 @@
       <c r="L432" t="s">
         <v>22</v>
       </c>
-      <c r="M432" t="s">
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="433" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>66</v>
       </c>
@@ -22476,11 +23775,14 @@
       <c r="L433" t="s">
         <v>22</v>
       </c>
-      <c r="M433" t="s">
+      <c r="M433">
+        <v>0</v>
+      </c>
+      <c r="N433" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="434" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>585</v>
       </c>
@@ -22517,11 +23819,14 @@
       <c r="L434" t="s">
         <v>22</v>
       </c>
-      <c r="M434" t="s">
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="N434" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="435" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>131</v>
       </c>
@@ -22558,11 +23863,14 @@
       <c r="L435" t="s">
         <v>59</v>
       </c>
-      <c r="M435" t="s">
+      <c r="M435">
+        <v>0</v>
+      </c>
+      <c r="N435" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>682</v>
       </c>
@@ -22599,11 +23907,14 @@
       <c r="L436" t="s">
         <v>22</v>
       </c>
-      <c r="M436" t="s">
+      <c r="M436">
+        <v>0</v>
+      </c>
+      <c r="N436" t="s">
         <v>1401</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>146</v>
       </c>
@@ -22640,11 +23951,14 @@
       <c r="L437" t="s">
         <v>59</v>
       </c>
-      <c r="M437" t="s">
+      <c r="M437">
+        <v>0</v>
+      </c>
+      <c r="N437" t="s">
         <v>1404</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>100</v>
       </c>
@@ -22681,11 +23995,14 @@
       <c r="L438" t="s">
         <v>22</v>
       </c>
-      <c r="M438" t="s">
+      <c r="M438">
+        <v>1</v>
+      </c>
+      <c r="N438" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>126</v>
       </c>
@@ -22722,11 +24039,14 @@
       <c r="L439" t="s">
         <v>59</v>
       </c>
-      <c r="M439" t="s">
+      <c r="M439">
+        <v>0</v>
+      </c>
+      <c r="N439" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>100</v>
       </c>
@@ -22763,11 +24083,14 @@
       <c r="L440" t="s">
         <v>22</v>
       </c>
-      <c r="M440" t="s">
+      <c r="M440">
+        <v>0</v>
+      </c>
+      <c r="N440" t="s">
         <v>1414</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>354</v>
       </c>
@@ -22804,11 +24127,14 @@
       <c r="L441" t="s">
         <v>22</v>
       </c>
-      <c r="M441" t="s">
+      <c r="M441">
+        <v>1</v>
+      </c>
+      <c r="N441" t="s">
         <v>1417</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>349</v>
       </c>
@@ -22845,11 +24171,14 @@
       <c r="L442" t="s">
         <v>22</v>
       </c>
-      <c r="M442" t="s">
+      <c r="M442">
+        <v>1</v>
+      </c>
+      <c r="N442" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>1248</v>
       </c>
@@ -22886,11 +24215,14 @@
       <c r="L443" t="s">
         <v>22</v>
       </c>
-      <c r="M443" t="s">
+      <c r="M443">
+        <v>1</v>
+      </c>
+      <c r="N443" t="s">
         <v>1421</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>109</v>
       </c>
@@ -22927,11 +24259,14 @@
       <c r="L444" t="s">
         <v>22</v>
       </c>
-      <c r="M444" t="s">
+      <c r="M444">
+        <v>0</v>
+      </c>
+      <c r="N444" t="s">
         <v>1424</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>109</v>
       </c>
@@ -22968,11 +24303,14 @@
       <c r="L445" t="s">
         <v>22</v>
       </c>
-      <c r="M445" t="s">
+      <c r="M445">
+        <v>0</v>
+      </c>
+      <c r="N445" t="s">
         <v>1426</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>71</v>
       </c>
@@ -23009,11 +24347,14 @@
       <c r="L446" t="s">
         <v>22</v>
       </c>
-      <c r="M446" t="s">
+      <c r="M446">
+        <v>0</v>
+      </c>
+      <c r="N446" t="s">
         <v>1429</v>
       </c>
     </row>
-    <row r="447" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>113</v>
       </c>
@@ -23050,11 +24391,14 @@
       <c r="L447" t="s">
         <v>59</v>
       </c>
-      <c r="M447" t="s">
+      <c r="M447">
+        <v>0</v>
+      </c>
+      <c r="N447" t="s">
         <v>1432</v>
       </c>
     </row>
-    <row r="448" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>1433</v>
       </c>
@@ -23091,11 +24435,14 @@
       <c r="L448" t="s">
         <v>59</v>
       </c>
-      <c r="M448" t="s">
+      <c r="M448">
+        <v>1</v>
+      </c>
+      <c r="N448" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>315</v>
       </c>
@@ -23132,11 +24479,14 @@
       <c r="L449" t="s">
         <v>59</v>
       </c>
-      <c r="M449" t="s">
+      <c r="M449">
+        <v>1</v>
+      </c>
+      <c r="N449" t="s">
         <v>1441</v>
       </c>
     </row>
-    <row r="450" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>585</v>
       </c>
@@ -23173,11 +24523,14 @@
       <c r="L450" t="s">
         <v>59</v>
       </c>
-      <c r="M450" t="s">
+      <c r="M450">
+        <v>0</v>
+      </c>
+      <c r="N450" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="451" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>585</v>
       </c>
@@ -23214,11 +24567,14 @@
       <c r="L451" t="s">
         <v>22</v>
       </c>
-      <c r="M451" t="s">
+      <c r="M451">
+        <v>0</v>
+      </c>
+      <c r="N451" t="s">
         <v>1444</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>378</v>
       </c>
@@ -23255,14 +24611,17 @@
       <c r="L452" t="s">
         <v>22</v>
       </c>
-      <c r="M452" t="s">
+      <c r="M452">
+        <v>1</v>
+      </c>
+      <c r="N452" t="s">
         <v>1447</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M334 A337:M452 A336:C336 M336 A335:D335 F335:M335" numberStoredAsText="1"/>
+    <ignoredError sqref="A336:C336 A335:D335 N1:N452 F335:L335 A337:L452 A1:L334" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>